--- a/Banco de Dados/TABELAS-AMONIO.xlsx
+++ b/Banco de Dados/TABELAS-AMONIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Banco de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\PROJETO-PI\grupo05\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F4E51-0DBD-4AEE-BD93-62F9FB037C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D76259-280E-4AEC-A1BB-89A8285FCC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{B59801B2-FA54-4022-B3CD-BCBF79857378}"/>
+    <workbookView xWindow="2595" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{B59801B2-FA54-4022-B3CD-BCBF79857378}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Função</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Hora</t>
+  </si>
+  <si>
+    <t>Telefone</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D56792C-E4E3-42D5-AF37-E88E63A4A980}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -746,18 +746,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -790,18 +790,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +814,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,35 +833,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10620C31-8EAA-482E-B254-F35CC656D072}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -886,13 +886,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
